--- a/data/trans_dic/P28C_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28C_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha pesado más respecto al último mes</t>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,48%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,33%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>22,7%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,1%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>19,54%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,1; 40,17</t>
+          <t>8,17; 40,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 29,33</t>
+          <t>6,69; 35,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 15,16</t>
+          <t>0,0; 16,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,53; 27,7</t>
+          <t>6,26; 35,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,26; 32,14</t>
+          <t>11,82; 37,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 25,82</t>
+          <t>1,97; 17,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 28,41</t>
+          <t>4,48; 25,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,95; 25,02</t>
+          <t>11,14; 36,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 17,7</t>
+          <t>13,96; 32,98</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>5,53; 19,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 17,1</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 30,28</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>33,02%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>9,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>13,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>30,66%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 47,48</t>
+          <t>14,84; 62,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,33; 44,06</t>
+          <t>9,8; 62,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 17,69</t>
+          <t>1,72; 16,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,38; 42,67</t>
+          <t>3,1; 22,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 28,62</t>
+          <t>18,23; 43,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 27,38</t>
+          <t>6,26; 25,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 39,35</t>
+          <t>5,12; 22,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 31,69</t>
+          <t>18,68; 45,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,03; 19,59</t>
+          <t>19,98; 46,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 44,93</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,57; 16,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 28,61</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>35,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>20,25%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>36,18%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>16,85%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,95; 47,42</t>
+          <t>25,0; 50,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,49; 35,15</t>
+          <t>9,23; 28,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 38,71</t>
+          <t>3,79; 20,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,82; 39,71</t>
+          <t>5,21; 24,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,82; 23,87</t>
+          <t>27,54; 46,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 25,68</t>
+          <t>10,98; 25,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,36; 40,01</t>
+          <t>13,71; 28,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,33; 25,41</t>
+          <t>12,25; 29,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,2; 29,21</t>
+          <t>28,8; 44,14</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12,26; 24,11</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 21,63</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11,43; 23,78</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>41,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>15,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>26,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17,88%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19,92%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,05; 36,78</t>
+          <t>19,26; 38,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 24,87</t>
+          <t>7,43; 22,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 21,25</t>
+          <t>7,7; 22,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,3; 44,76</t>
+          <t>7,27; 24,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,01; 24,54</t>
+          <t>32,07; 50,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 24,54</t>
+          <t>14,54; 30,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,52; 38,74</t>
+          <t>9,31; 23,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 22,25</t>
+          <t>18,35; 36,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,42; 21,22</t>
+          <t>28,27; 41,67</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>12,51; 23,85</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 20,16</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,59; 26,11</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>24,09%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>36,62%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>28,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>19,36%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>25,77%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17,05%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,49%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,25; 37,33</t>
+          <t>14,77; 36,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,19; 24,46</t>
+          <t>8,3; 25,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,04; 26,69</t>
+          <t>7,66; 25,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,67; 46,08</t>
+          <t>1,39; 13,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,72; 25,26</t>
+          <t>17,1; 41,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,52; 23,69</t>
+          <t>10,87; 33,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,9; 38,96</t>
+          <t>9,82; 31,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,81; 21,66</t>
+          <t>7,01; 28,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,97; 22,42</t>
+          <t>18,84; 35,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,86; 25,08</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>10,9; 24,83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 17,86</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>43,15%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>36,5%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25,77%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,28; 36,57</t>
+          <t>15,39; 44,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,54; 26,01</t>
+          <t>8,19; 36,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,85; 24,87</t>
+          <t>9,59; 35,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,04; 41,0</t>
+          <t>0,0; 18,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,91; 32,5</t>
+          <t>30,15; 58,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,01; 27,66</t>
+          <t>11,58; 41,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,43; 35,93</t>
+          <t>17,94; 51,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,43; 25,91</t>
+          <t>1,85; 27,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,1; 22,88</t>
+          <t>25,6; 47,34</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12,7; 31,91</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>16,77; 37,34</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 18,22</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,51%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>31,93%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18,34%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>15,84%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>23,7; 33,19</t>
+          <t>23,82; 36,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,46; 23,28</t>
+          <t>13,47; 28,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,77; 19,09</t>
+          <t>8,01; 15,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,21; 35,49</t>
+          <t>7,25; 14,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,45; 21,09</t>
+          <t>30,05; 39,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,28; 20,52</t>
+          <t>13,61; 21,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,38; 33,26</t>
+          <t>14,53; 22,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 20,5</t>
+          <t>16,92; 25,68</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,38; 18,38</t>
+          <t>28,32; 36,18</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>15,18; 23,31</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 17,79</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>12,91; 18,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha pesado más respecto al último mes (tasa de respuesta: 99,48%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22192</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17666</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6135</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>22723</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>29704</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9652</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16039</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32212</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>51896</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27319</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22174</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54935</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7725; 37933</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7068; 37530</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20174</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8708; 48902</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15838; 49860</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2365; 21348</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5493; 31609</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15812; 51934</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>31919; 75403</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12488; 45092</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9938; 41812</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>32415; 85116</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>52950</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>47345</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10125</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>22438</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>49420</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17191</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14773</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>49463</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>102370</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>64536</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24898</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>71901</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25034; 105423</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14046; 90248</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2648; 25755</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6963; 50297</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>30096; 72064</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7933; 31826</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6465; 27908</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>30339; 74089</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>66687; 156350</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>29856; 121342</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12815; 45832</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>40629; 110783</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>59120</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>23872</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14266</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22432</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>95037</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35240</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>40346</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>47284</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>154157</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>59112</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>54612</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>69717</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40515; 81610</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12408; 38262</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5210; 28534</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9399; 44183</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72736; 122079</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22799; 53524</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27481; 57431</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>28601; 69327</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>122724; 188073</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>41930; 82448</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>34803; 73135</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>47279; 98410</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51683</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22447</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>21387</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27052</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>89547</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>39640</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26279</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>54046</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>141230</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>62086</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>47666</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>81099</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>35506; 71246</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>11978; 36702</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>11886; 35090</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>14646; 49101</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>70029; 111259</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27031; 56025</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15868; 40100</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>37748; 74117</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>113860; 167823</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>43413; 82800</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>31555; 65468</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>59404; 106290</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>37930</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20216</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18863</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9049</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>31820</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19654</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17940</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>20960</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>69750</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39870</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>36802</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>30009</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23250; 56889</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10962; 33504</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>9441; 31790</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2116; 20941</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>19356; 46543</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10193; 31025</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9097; 28979</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9360; 38304</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>50999; 95584</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>26781; 56663</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>23519; 53597</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>17073; 51108</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30756</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16460</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>17395</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7322</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>59371</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>24171</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>34332</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15217</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>90126</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>40630</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>51727</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>22539</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>16829; 48912</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7150; 31584</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8648; 31678</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 25183</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>41490; 80475</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11910; 43010</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19848; 56908</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3237; 47283</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>63199; 116893</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>24152; 60680</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>33672; 74959</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9109; 56321</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>254630</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>148006</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>88171</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>111018</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>354899</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>145548</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>149708</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>219182</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>609530</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>293554</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>237879</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>330200</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>208804; 320431</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>102915; 215141</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>62589; 117599</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>74865; 150505</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>310249; 408108</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>113918; 176388</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>119576; 182808</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>178009; 270207</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>540565; 690538</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>243034; 373258</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>197718; 285393</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>269202; 390669</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>